--- a/Docs/双方通讯模型.xlsx
+++ b/Docs/双方通讯模型.xlsx
@@ -1,31 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDAD7B-97A3-492B-8AC8-F56041B2611E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F7C9A1-3400-4854-AC49-44CF436672F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="双方通讯模型" sheetId="1" r:id="rId1"/>
-    <sheet name="相机扫描处理" sheetId="2" r:id="rId2"/>
+    <sheet name="6.11下午医院会议内容" sheetId="3" r:id="rId1"/>
+    <sheet name="双方通讯模型" sheetId="1" r:id="rId2"/>
+    <sheet name="相机扫描处理" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>相机扫描处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>界面展示</t>
+    <t>6.11下午会议内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>识别效率较快 识别准确率正常</t>
+    <t>维克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发框架：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存疑B/B:S/S框架 B调用S的Method(B主动发送soap指令到S),S发回Mehtod结果(图片和Json)(相当于S方只是一个智能相机+下位机)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程存疑,BS是否是存在于一台电脑上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：不建议询问【架构是前期工作，现在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    项目处于中期，不建议把主动权交给对方。】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.通信模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.表单要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 统一格式;无装订最好一张(含正反面)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 签字直接纵向合理间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - barcode分辨率冗余合理</t>
+  </si>
+  <si>
+    <t>- [ ] TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [ ] 设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [ ] 字体,要求黑体之类的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [ ] 签字距离要留足以免混淆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [ ] 蓝色贴片可能无法更改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [ ] </t>
   </si>
 </sst>
 </file>
@@ -80,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -88,15 +154,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -115,6 +273,2165 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 终止 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DE508F-0BD2-45F6-8870-84DBD49E003B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="6372225"/>
+          <a:ext cx="1447800" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 准备 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11122A8E-0C45-4259-8B42-60404BBA9C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="200025"/>
+          <a:ext cx="2819400" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPreparation">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>信息自动化解决方案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PPT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>三种表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>模型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>双方通讯模型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0739A0-3255-48AE-8423-EB40464A67D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8934449" y="171449"/>
+          <a:ext cx="1762126" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>我需要获取的会议重点：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>客户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需求</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>数据库类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>通讯方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>表单样式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC74A7CD-45D6-4569-8667-722365E47912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="1019175"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 过程 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8789201A-5204-493E-9CD5-8A827C73F09D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="2438400"/>
+          <a:ext cx="1924050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>演示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>PPT</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 过程 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDBD3E3-306E-441D-AD0A-C800440F92D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="1457325"/>
+          <a:ext cx="1924050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>确认需求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF87D045-7717-459E-861B-820298604C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="2000250"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 过程 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB90E46B-C0D1-4B76-9370-49ABFF629C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="4429125"/>
+          <a:ext cx="5686426" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商议</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>改进</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>商议通讯方式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922D93C8-2C61-4685-AD25-12A1621AADCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="3971925"/>
+          <a:ext cx="4763" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="流程图: 过程 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0382DD-1D35-414F-9D9A-8541E8EB8A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="3429000"/>
+          <a:ext cx="1924050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>演示程序</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D8C3B9-14F5-4A49-98A0-3A28CC76722F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="2981325"/>
+          <a:ext cx="0" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="流程图: 过程 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AF6EAC-048D-4EBE-89C8-49DD05B9363B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686051" y="5448300"/>
+          <a:ext cx="3562350" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>商议表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" u="none"/>
+            <a:t>样式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7862735-7334-4D7E-A24C-947B11DE59F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4462463" y="4972050"/>
+          <a:ext cx="4763" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C37B2C7-8EED-462A-AE45-FD9B4DB87158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4467225" y="5991225"/>
+          <a:ext cx="1" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="对话气泡: 矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57440E58-777D-474D-85C8-B3C09DA624A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820150" y="2590800"/>
+          <a:ext cx="2647950" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -105365"/>
+            <a:gd name="adj2" fmla="val 123409"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>界面样子</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>明确数据库类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通讯方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>得到一些真实数据做查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>主键</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分析</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C824FF9E-1235-44FA-9B8A-C75AF14007A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="1019175"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8E055D-E874-47F6-B81C-AC8FA0D47D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="2000250"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC020ED3-B900-4286-AB54-EBA9D74157E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="3971925"/>
+          <a:ext cx="4763" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456FEA4-E95C-4275-ABA7-D7A59FFF2822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="2981325"/>
+          <a:ext cx="0" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F64B786-8906-4C46-A151-D3C715D07E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4462463" y="4972050"/>
+          <a:ext cx="4763" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98395C23-2485-4DA1-BDA3-A5C7E511D338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4467225" y="5991225"/>
+          <a:ext cx="1" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="对话气泡: 矩形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBF9B28-1B50-451C-9FB2-406F37616541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810624" y="4076699"/>
+          <a:ext cx="3629025" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -118697"/>
+            <a:gd name="adj2" fmla="val 57046"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：两套表单（多页</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单页）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注意签名的位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>两套表单（多页</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单页）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注意签名的位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：两套表单（多页</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单页）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注意签名的位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>补注：每页都签名还是一页一签名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表单逻辑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表单扫描码放顺序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>维克</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表单存放顺序（按课时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>时间）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>维克</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2546,7 +4863,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4831,11 +7148,1256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECA24C5-7A51-44F4-B034-4913790D3519}">
+  <dimension ref="A1:AG45"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="T2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="6"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="T3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="8"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="8"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="8"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="8"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="T10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="8"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="T13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="T14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="T15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="T16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="T17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="8"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="T18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="8"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="T19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="8"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="T20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="8"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="T21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="8"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="T22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="8"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="8"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="8"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="8"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="8"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="8"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="8"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="8"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="8"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="8"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="8"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="8"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="8"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="8"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="8"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="8"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="13"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4850,12 +8412,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1AACE5-182B-4014-804B-3B25E58EC4E0}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5335,14 +8897,7 @@
       <c r="I43" s="2"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
+      <c r="B55" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Docs/双方通讯模型.xlsx
+++ b/Docs/双方通讯模型.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F7C9A1-3400-4854-AC49-44CF436672F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF2979-E1FE-4052-85DA-0D2BC0069DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
